--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD_TAGS" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="GEN_TAGS" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ASSETS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LOCATIONS" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="ASSETS_Old" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -190,6 +191,219 @@
     <t xml:space="preserve">OPEX</t>
   </si>
   <si>
+    <t xml:space="preserve">Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr_Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aux_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bus_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_SF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_0_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR_0_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line_1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line_2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line_3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line_7_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB_CI9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOG_39</t>
+  </si>
+  <si>
     <t xml:space="preserve">Element_Type</t>
   </si>
   <si>
@@ -199,211 +413,13 @@
     <t xml:space="preserve">SERVICE</t>
   </si>
   <si>
-    <t xml:space="preserve">Aux_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_0_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_SF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR_0_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SW</t>
   </si>
   <si>
     <t xml:space="preserve">S1</t>
   </si>
   <si>
-    <t xml:space="preserve">CB_0_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR_0_12</t>
-  </si>
-  <si>
     <t xml:space="preserve">S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_CI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line_1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_CI12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line_2_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line_3_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line_7_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_CI9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOG_39</t>
   </si>
 </sst>
 </file>
@@ -418,7 +434,7 @@
     <numFmt numFmtId="168" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,6 +472,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -463,7 +493,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +528,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF5EB91E"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -583,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -680,11 +716,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -696,16 +736,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -758,7 +802,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF5EB91E"/>
@@ -787,11 +831,11 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1648,10 +1692,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1916,7 +1960,7 @@
         <v>0.1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,7 +2040,7 @@
         <v>0.15</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,13 +2095,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
@@ -2066,10 +2110,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2100,31 +2145,28 @@
       <c r="J1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>7000</v>
@@ -2137,26 +2179,28 @@
         <f aca="false">G2*0.75</f>
         <v>5250</v>
       </c>
-      <c r="L2" s="25"/>
+      <c r="K2" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>10000</v>
@@ -2170,34 +2214,30 @@
         <v>7500</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>68</v>
+      <c r="B4" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="20" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>10000</v>
@@ -2211,34 +2251,30 @@
         <v>7500</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>65</v>
+      <c r="B5" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="20" t="n">
         <v>24</v>
       </c>
       <c r="E5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>8000</v>
@@ -2252,34 +2288,30 @@
         <v>6000</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>69</v>
+      <c r="B6" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="20" t="n">
         <v>24</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>7000</v>
@@ -2293,33 +2325,29 @@
         <v>5250</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -2334,33 +2362,29 @@
         <v>6000</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>74</v>
+      <c r="B8" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
@@ -2375,34 +2399,30 @@
         <v>7500</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="20" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="24" t="s">
         <v>75</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>6000</v>
@@ -2415,34 +2435,30 @@
         <f aca="false">G9*0.75</f>
         <v>4500</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="J9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>77</v>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -2457,33 +2473,29 @@
         <v>2250</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>78</v>
+      <c r="B11" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>8</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -2498,34 +2510,30 @@
         <v>6000</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>79</v>
+      <c r="B12" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3000</v>
@@ -2539,34 +2547,30 @@
         <v>2250</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>80</v>
+      <c r="B13" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>7000</v>
@@ -2580,34 +2584,30 @@
         <v>5250</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="20" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>81</v>
+      <c r="B14" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20" t="n">
         <v>5</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>7000</v>
@@ -2621,34 +2621,30 @@
         <v>5250</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="20" t="n">
         <f aca="false">24*3</f>
         <v>72</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -2663,33 +2659,29 @@
         <v>-5250</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="20" t="n">
         <v>48</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -2704,34 +2696,30 @@
         <v>0</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="20" t="n">
         <f aca="false">30*24</f>
         <v>720</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -2746,33 +2734,29 @@
         <v>0</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>85</v>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="20" t="n">
         <v>4</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -2787,34 +2771,30 @@
         <v>0</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L18" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="20" t="n">
         <f aca="false">60*24</f>
         <v>1440</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -2829,14 +2809,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="25" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,275 +3181,275 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="20"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="20"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="20"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="20"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="20"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="20"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="20"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="20"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="20"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="20"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="20"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="20"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="20"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="20"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="20"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="20"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="20"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="20"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="20"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="20"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="20"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="20"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3497,450 +3473,1948 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>86</v>
       </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="30" t="n">
+        <v>3.382628</v>
+      </c>
+      <c r="C2" s="30" t="n">
+        <v>36.738027</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="30" t="n">
+        <v>3.796547</v>
+      </c>
+      <c r="C3" s="30" t="n">
+        <v>36.452382</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="30" t="n">
+        <v>3.656768</v>
+      </c>
+      <c r="C4" s="30" t="n">
+        <v>36.834157</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="30" t="n">
+        <v>4.223964</v>
+      </c>
+      <c r="C5" s="30" t="n">
+        <v>36.759999</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="30" t="n">
+        <v>3.560828</v>
+      </c>
+      <c r="C6" s="30" t="n">
+        <v>36.606191</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="30" t="n">
+        <v>3.708845</v>
+      </c>
+      <c r="C7" s="30" t="n">
+        <v>36.438639</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="30" t="n">
+        <v>3.48036943</v>
+      </c>
+      <c r="C8" s="30" t="n">
+        <v>36.8153996</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="30" t="n">
+        <v>3.81834414</v>
+      </c>
+      <c r="C9" s="30" t="n">
+        <v>36.5419431</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="30" t="n">
+        <v>3.68687441</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>36.8941092</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="30" t="n">
+        <v>4.22586571</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>36.7745918</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="30" t="n">
+        <v>3.62335251</v>
+      </c>
+      <c r="C12" s="30" t="n">
+        <v>36.6454257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="30" t="n">
+        <v>3.74291712</v>
+      </c>
+      <c r="C13" s="30" t="n">
+        <v>36.5148909</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="30" t="n">
+        <v>3.57735223</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>36.8301506</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="30" t="n">
+        <v>3.83814888</v>
+      </c>
+      <c r="C15" s="30" t="n">
+        <v>36.5714184</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="30" t="n">
+        <v>3.7143189</v>
+      </c>
+      <c r="C16" s="30" t="n">
+        <v>36.9938681</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="30" t="n">
+        <v>4.23442864</v>
+      </c>
+      <c r="C17" s="30" t="n">
+        <v>36.7821268</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="30" t="n">
+        <v>3.66715437</v>
+      </c>
+      <c r="C18" s="30" t="n">
+        <v>36.6733122</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="30" t="n">
+        <v>3.75223271</v>
+      </c>
+      <c r="C19" s="30" t="n">
+        <v>36.5612685</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="30" t="n">
+        <v>3.67597052</v>
+      </c>
+      <c r="C20" s="30" t="n">
+        <v>36.8464066</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="30" t="n">
+        <v>3.87715608</v>
+      </c>
+      <c r="C21" s="30" t="n">
+        <v>36.633536</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="30" t="n">
+        <v>3.73961887</v>
+      </c>
+      <c r="C22" s="30" t="n">
+        <v>37.0495704</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="30" t="n">
+        <v>4.32969441</v>
+      </c>
+      <c r="C23" s="30" t="n">
+        <v>36.8293979</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="30" t="n">
+        <v>3.68396877</v>
+      </c>
+      <c r="C24" s="30" t="n">
+        <v>36.7397901</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="30" t="n">
+        <v>3.82533597</v>
+      </c>
+      <c r="C25" s="30" t="n">
+        <v>36.64824</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>3.76064683</v>
+      </c>
+      <c r="C26" s="30" t="n">
+        <v>36.8839447</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="30" t="n">
+        <v>3.91718799</v>
+      </c>
+      <c r="C27" s="30" t="n">
+        <v>36.6690465</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="30" t="n">
+        <v>3.7657132</v>
+      </c>
+      <c r="C28" s="30" t="n">
+        <v>37.0824723</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="30" t="n">
+        <v>4.35981594</v>
+      </c>
+      <c r="C29" s="30" t="n">
+        <v>36.8588089</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="30" t="n">
+        <v>3.73594413</v>
+      </c>
+      <c r="C30" s="30" t="n">
+        <v>36.8315668</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="30" t="n">
+        <v>3.8771501</v>
+      </c>
+      <c r="C31" s="30" t="n">
+        <v>36.6973403</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="30" t="n">
+        <v>3.8330832</v>
+      </c>
+      <c r="C32" s="30" t="n">
+        <v>36.9110609</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="30" t="n">
+        <v>3.95505275</v>
+      </c>
+      <c r="C33" s="30" t="n">
+        <v>36.7655372</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="30" t="n">
+        <v>3.85210038</v>
+      </c>
+      <c r="C34" s="30" t="n">
+        <v>37.1701443</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="30" t="n">
+        <v>4.36048175</v>
+      </c>
+      <c r="C35" s="30" t="n">
+        <v>36.8803902</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="30" t="n">
+        <v>3.80123012</v>
+      </c>
+      <c r="C36" s="30" t="n">
+        <v>36.8774042</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="30" t="n">
+        <v>3.95801733</v>
+      </c>
+      <c r="C37" s="30" t="n">
+        <v>36.7709093</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="30" t="n">
+        <v>3.88537781</v>
+      </c>
+      <c r="C38" s="30" t="n">
+        <v>36.9964433</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="30" t="n">
+        <v>4.02159372</v>
+      </c>
+      <c r="C39" s="30" t="n">
+        <v>36.8570698</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="30" t="n">
+        <v>3.88341944</v>
+      </c>
+      <c r="C40" s="30" t="n">
+        <v>37.2204854</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M105"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.65"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="29" t="n">
-        <v>3.382628</v>
-      </c>
-      <c r="C2" s="29" t="n">
-        <v>36.738027</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="29" t="n">
-        <v>3.796547</v>
-      </c>
-      <c r="C3" s="29" t="n">
-        <v>36.452382</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="29" t="n">
-        <v>3.656768</v>
-      </c>
-      <c r="C4" s="29" t="n">
-        <v>36.834157</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="29" t="n">
-        <v>4.223964</v>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>36.759999</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="29" t="n">
-        <v>3.560828</v>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>36.606191</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="29" t="n">
-        <v>3.708845</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>36.438639</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="29" t="n">
-        <v>3.48036943</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>36.8153996</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="29" t="n">
-        <v>3.81834414</v>
-      </c>
-      <c r="C9" s="29" t="n">
-        <v>36.5419431</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="29" t="n">
-        <v>3.68687441</v>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>36.8941092</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="29" t="n">
-        <v>4.22586571</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>36.7745918</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="29" t="n">
-        <v>3.62335251</v>
-      </c>
-      <c r="C12" s="29" t="n">
-        <v>36.6454257</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="29" t="n">
-        <v>3.74291712</v>
-      </c>
-      <c r="C13" s="29" t="n">
-        <v>36.5148909</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="29" t="n">
-        <v>3.57735223</v>
-      </c>
-      <c r="C14" s="29" t="n">
-        <v>36.8301506</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="29" t="n">
-        <v>3.83814888</v>
-      </c>
-      <c r="C15" s="29" t="n">
-        <v>36.5714184</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="29" t="n">
-        <v>3.7143189</v>
-      </c>
-      <c r="C16" s="29" t="n">
-        <v>36.9938681</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="29" t="n">
-        <v>4.23442864</v>
-      </c>
-      <c r="C17" s="29" t="n">
-        <v>36.7821268</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="29" t="n">
-        <v>3.66715437</v>
-      </c>
-      <c r="C18" s="29" t="n">
-        <v>36.6733122</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="29" t="n">
-        <v>3.75223271</v>
-      </c>
-      <c r="C19" s="29" t="n">
-        <v>36.5612685</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="29" t="n">
-        <v>3.67597052</v>
-      </c>
-      <c r="C20" s="29" t="n">
-        <v>36.8464066</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="29" t="n">
-        <v>3.87715608</v>
-      </c>
-      <c r="C21" s="29" t="n">
-        <v>36.633536</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="29" t="n">
-        <v>3.73961887</v>
-      </c>
-      <c r="C22" s="29" t="n">
-        <v>37.0495704</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="29" t="n">
-        <v>4.32969441</v>
-      </c>
-      <c r="C23" s="29" t="n">
-        <v>36.8293979</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="29" t="n">
-        <v>3.68396877</v>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>36.7397901</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="29" t="n">
-        <v>3.82533597</v>
-      </c>
-      <c r="C25" s="29" t="n">
-        <v>36.64824</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="29" t="n">
-        <v>3.76064683</v>
-      </c>
-      <c r="C26" s="29" t="n">
-        <v>36.8839447</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="29" t="n">
-        <v>3.91718799</v>
-      </c>
-      <c r="C27" s="29" t="n">
-        <v>36.6690465</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="29" t="n">
-        <v>3.7657132</v>
-      </c>
-      <c r="C28" s="29" t="n">
-        <v>37.0824723</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="29" t="n">
-        <v>4.35981594</v>
-      </c>
-      <c r="C29" s="29" t="n">
-        <v>36.8588089</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="29" t="n">
-        <v>3.73594413</v>
-      </c>
-      <c r="C30" s="29" t="n">
-        <v>36.8315668</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="29" t="n">
-        <v>3.8771501</v>
-      </c>
-      <c r="C31" s="29" t="n">
-        <v>36.6973403</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="29" t="n">
-        <v>3.8330832</v>
-      </c>
-      <c r="C32" s="29" t="n">
-        <v>36.9110609</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="29" t="n">
-        <v>3.95505275</v>
-      </c>
-      <c r="C33" s="29" t="n">
-        <v>36.7655372</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="29" t="n">
-        <v>3.85210038</v>
-      </c>
-      <c r="C34" s="29" t="n">
-        <v>37.1701443</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B35" s="29" t="n">
-        <v>4.36048175</v>
-      </c>
-      <c r="C35" s="29" t="n">
-        <v>36.8803902</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="29" t="n">
-        <v>3.80123012</v>
-      </c>
-      <c r="C36" s="29" t="n">
-        <v>36.8774042</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="29" t="n">
-        <v>3.95801733</v>
-      </c>
-      <c r="C37" s="29" t="n">
-        <v>36.7709093</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="29" t="n">
-        <v>3.88537781</v>
-      </c>
-      <c r="C38" s="29" t="n">
-        <v>36.9964433</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="29" t="n">
-        <v>4.02159372</v>
-      </c>
-      <c r="C39" s="29" t="n">
-        <v>36.8570698</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="29" t="n">
-        <v>3.88341944</v>
-      </c>
-      <c r="C40" s="29" t="n">
-        <v>37.2204854</v>
-      </c>
+      <c r="K1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">G2*9</f>
+        <v>63000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">G2*0.75</f>
+        <v>5250</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">G3*9</f>
+        <v>90000</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">G3*0.75</f>
+        <v>7500</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">G4*9</f>
+        <v>90000</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">G4*0.75</f>
+        <v>7500</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">G5*9</f>
+        <v>72000</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">G5*0.75</f>
+        <v>6000</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">G6*9</f>
+        <v>63000</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">G6*0.75</f>
+        <v>5250</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">G7*9</f>
+        <v>72000</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">G7*0.75</f>
+        <v>6000</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">G8*9</f>
+        <v>90000</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">G8*0.75</f>
+        <v>7500</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">G9*9</f>
+        <v>54000</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">G9*0.75</f>
+        <v>4500</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">G10*9</f>
+        <v>27000</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">G10*0.75</f>
+        <v>2250</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">G11*9</f>
+        <v>72000</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">G11*0.75</f>
+        <v>6000</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">G12*9</f>
+        <v>27000</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">G12*0.75</f>
+        <v>2250</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">G13*9</f>
+        <v>63000</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">G13*0.75</f>
+        <v>5250</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">G14*9</f>
+        <v>63000</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">G14*0.75</f>
+        <v>5250</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <f aca="false">24*3</f>
+        <v>72</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>-7000</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">-G15*9</f>
+        <v>63000</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">G15*0.75</f>
+        <v>-5250</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="20" t="n">
+        <v>48</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">-G16*9</f>
+        <v>-0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">G16*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="20" t="n">
+        <f aca="false">30*24</f>
+        <v>720</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">-G17*9</f>
+        <v>-0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">G17*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">-G18*9</f>
+        <v>-0</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">G18*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="20" t="n">
+        <f aca="false">60*24</f>
+        <v>1440</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">-G19*9</f>
+        <v>-0</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">G19*0.75</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="32" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="20"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="20"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="20"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="20"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="20"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="20"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="20"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="20"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="20"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="20"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="20"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="20"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="20"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="20"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="20"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="20"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="20"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="20"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="20"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="20"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="20"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="20"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="20"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="20"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="20"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -434,7 +434,7 @@
     <numFmt numFmtId="168" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -478,12 +478,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -724,7 +718,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,7 +734,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,7 +829,7 @@
       <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1695,7 +1689,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -2098,10 +2092,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
@@ -2180,7 +2174,8 @@
         <v>5250</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H2*1.1</f>
+        <v>69300</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,7 +2212,8 @@
         <v>65</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H3*1.1</f>
+        <v>99000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,7 +2250,8 @@
         <v>68</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H4*1.1</f>
+        <v>99000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,7 +2288,8 @@
         <v>65</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H5*1.1</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,7 +2326,8 @@
         <v>69</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H6*1.1</f>
+        <v>69300</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,7 +2364,8 @@
         <v>69</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H7*1.1</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2402,8 @@
         <v>68</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H8*1.1</f>
+        <v>99000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,7 +2440,8 @@
         <v>69</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>10</v>
+        <f aca="false">H9*1.1</f>
+        <v>59400</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,7 +2478,8 @@
         <v>65</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H10*1.1</f>
+        <v>29700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,7 +2516,8 @@
         <v>65</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H11*1.1</f>
+        <v>79200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,7 +2554,8 @@
         <v>65</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H12*1.1</f>
+        <v>29700</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,7 +2592,8 @@
         <v>65</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H13*1.1</f>
+        <v>69300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,7 +2630,8 @@
         <v>65</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H14*1.1</f>
+        <v>69300</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2648,21 +2655,22 @@
         <v>41</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-7000</v>
+        <v>7000</v>
       </c>
       <c r="H15" s="0" t="n">
-        <f aca="false">-G15*9</f>
+        <f aca="false">G15*9</f>
         <v>63000</v>
       </c>
       <c r="I15" s="0" t="n">
-        <f aca="false">G15*0.75</f>
+        <f aca="false">-G15*0.75</f>
         <v>-5250</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H15*1.1</f>
+        <v>69300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,21 +2693,22 @@
         <v>37</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H16" s="0" t="n">
-        <f aca="false">-G16*9</f>
-        <v>-0</v>
+        <f aca="false">G16*9</f>
+        <v>27000</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">G16*0.75</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>69</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H16*1.1</f>
+        <v>29700</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,21 +2732,22 @@
         <v>44</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H17" s="0" t="n">
-        <f aca="false">-G17*9</f>
-        <v>-0</v>
+        <f aca="false">G17*9</f>
+        <v>36000</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">G17*0.75</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>69</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H17*1.1</f>
+        <v>39600</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,21 +2770,22 @@
         <v>25</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="0" t="n">
-        <f aca="false">-G18*9</f>
-        <v>-0</v>
+        <f aca="false">G18*9</f>
+        <v>9000</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">G18*0.75</f>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>69</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H18*1.1</f>
+        <v>9900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,21 +2809,22 @@
         <v>39</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H19" s="0" t="n">
-        <f aca="false">-G19*9</f>
-        <v>-0</v>
+        <f aca="false">G19*9</f>
+        <v>90000</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">G19*0.75</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>69</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>5</v>
+        <f aca="false">H19*1.1</f>
+        <v>99000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,7 +3485,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -3940,7 +3952,7 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="132">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -829,7 +829,7 @@
       <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1689,7 +1689,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -2092,10 +2092,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
@@ -2665,9 +2665,6 @@
         <f aca="false">-G15*0.75</f>
         <v>-5250</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="K15" s="0" t="n">
         <f aca="false">H15*1.1</f>
         <v>69300</v>
@@ -2702,9 +2699,6 @@
       <c r="I16" s="0" t="n">
         <f aca="false">G16*0.75</f>
         <v>2250</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="false">H16*1.1</f>
@@ -3485,7 +3479,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -3952,7 +3946,7 @@
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -12,7 +12,6 @@
     <sheet name="GEN_TAGS" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ASSETS" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="LOCATIONS" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ASSETS_Old" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -402,37 +401,18 @@
   </si>
   <si>
     <t xml:space="preserve">BOG_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element_Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -613,7 +593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,10 +722,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +805,7 @@
       <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1689,7 +1665,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -2092,10 +2068,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
@@ -2812,9 +2788,6 @@
       <c r="I19" s="0" t="n">
         <f aca="false">G19*0.75</f>
         <v>7500</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="false">H19*1.1</f>
@@ -3479,7 +3452,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -3923,1504 +3896,6 @@
       <c r="C40" s="30" t="n">
         <v>37.2204854</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M105"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.65"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">G2*9</f>
-        <v>63000</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <f aca="false">G2*0.75</f>
-        <v>5250</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">G3*9</f>
-        <v>90000</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <f aca="false">G3*0.75</f>
-        <v>7500</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L3" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">G4*9</f>
-        <v>90000</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">G4*0.75</f>
-        <v>7500</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L4" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="20" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">G5*9</f>
-        <v>72000</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">G5*0.75</f>
-        <v>6000</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="20" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">G6*9</f>
-        <v>63000</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">G6*0.75</f>
-        <v>5250</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <f aca="false">G7*9</f>
-        <v>72000</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">G7*0.75</f>
-        <v>6000</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">G8*9</f>
-        <v>90000</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">G8*0.75</f>
-        <v>7500</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L8" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">G9*9</f>
-        <v>54000</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">G9*0.75</f>
-        <v>4500</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L9" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">G10*9</f>
-        <v>27000</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">G10*0.75</f>
-        <v>2250</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="20" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">G11*9</f>
-        <v>72000</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">G11*0.75</f>
-        <v>6000</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <f aca="false">G12*9</f>
-        <v>27000</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">G12*0.75</f>
-        <v>2250</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L12" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <f aca="false">G13*9</f>
-        <v>63000</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">G13*0.75</f>
-        <v>5250</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">G14*9</f>
-        <v>63000</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">G14*0.75</f>
-        <v>5250</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="20" t="n">
-        <f aca="false">24*3</f>
-        <v>72</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>-7000</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">-G15*9</f>
-        <v>63000</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">G15*0.75</f>
-        <v>-5250</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L15" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="20" t="n">
-        <v>48</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <f aca="false">-G16*9</f>
-        <v>-0</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">G16*0.75</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="20" t="n">
-        <f aca="false">30*24</f>
-        <v>720</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <f aca="false">-G17*9</f>
-        <v>-0</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">G17*0.75</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <f aca="false">-G18*9</f>
-        <v>-0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">G18*0.75</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="20" t="n">
-        <f aca="false">60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <f aca="false">-G19*9</f>
-        <v>-0</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">G19*0.75</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="32" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="20"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="20"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD_TAGS" sheetId="1" state="visible" r:id="rId2"/>
@@ -467,7 +467,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +490,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF127622"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -593,7 +599,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -638,11 +644,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,15 +700,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,7 +728,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -718,7 +736,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,10 +820,10 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -849,799 +867,835 @@
         <v>64400</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="9" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <f aca="false">500/(5/1000)</f>
         <v>100000</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>630</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="13" t="n">
         <f aca="false">233.8/(5/1000)</f>
         <v>46760</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>1640</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <f aca="false">522/(5/1000)</f>
         <v>104400</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>1443</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <f aca="false">7.5/(5/1000)</f>
         <v>1500</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <f aca="false">320/(5/1000)</f>
         <v>64000</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <f aca="false">329/(5/1000)</f>
         <v>65800</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>502</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="13" t="n">
         <f aca="false">158/(5/1000)</f>
         <v>31600</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="13" t="n">
         <f aca="false">628/(5/1000)</f>
         <v>125600</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F10" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>630</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="13" t="n">
         <f aca="false">274/(5/1000)</f>
         <v>54800</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="12" t="n">
-        <v>2</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F11" s="14" t="n">
+        <f aca="false">2*1000</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>1640</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="13" t="n">
         <f aca="false">247.5/(5/1000)</f>
         <v>49500</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>1443</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <f aca="false">308.6/(5/1000)</f>
         <v>61720</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>1640</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="13" t="n">
         <f aca="false">224/(5/1000)</f>
         <v>44800</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>1443</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="13" t="n">
         <f aca="false">139/(5/1000)</f>
         <v>27800</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>502</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="13" t="n">
         <f aca="false">281/(5/1000)</f>
         <v>56200</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>200</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="13" t="n">
         <f aca="false">206/(5/1000)</f>
         <v>41200</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>630</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <f aca="false">283.5/(5/1000)</f>
         <v>56700</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="12" t="n">
         <v>1640</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="13" t="n">
         <f aca="false">9.2/(5/1000)</f>
         <v>1840</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="12" t="n">
-        <v>5</v>
+        <f aca="false">0.5*1000</f>
+        <v>500</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <f aca="false">+5*1000</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="19"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="19"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="19"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="19"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="19"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="19"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="19"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="19"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="19"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="19"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="19"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="19"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="19"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="19"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="19"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="19"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="19"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="19"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="19"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="19"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1661,11 +1715,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1717,16 +1771,16 @@
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
@@ -1737,16 +1791,16 @@
       <c r="A4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -1757,16 +1811,16 @@
       <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -1777,16 +1831,16 @@
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
@@ -1797,16 +1851,16 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -1817,16 +1871,16 @@
       <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
@@ -1837,16 +1891,16 @@
       <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
@@ -1857,16 +1911,16 @@
       <c r="A10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
@@ -1877,16 +1931,16 @@
       <c r="A11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
@@ -1897,56 +1951,58 @@
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="12" t="n">
-        <v>0</v>
+      <c r="E12" s="13" t="n">
+        <f aca="false">+0.1*1000</f>
+        <v>100</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0</v>
+        <f aca="false">+0.5*1000</f>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>0.1</v>
+      <c r="E13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -1957,16 +2013,16 @@
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -1977,16 +2033,16 @@
       <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="13" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
@@ -1997,57 +2053,59 @@
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="n">
-        <v>0.15</v>
+      <c r="E17" s="13" t="n">
+        <f aca="false">0.15*1000</f>
+        <v>150</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.05</v>
+        <f aca="false">+0.5*1000</f>
+        <v>500</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2067,14 +2125,14 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
@@ -2088,10 +2146,10 @@
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -2103,158 +2161,158 @@
       <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="n">
+      <c r="A2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">G2*9</f>
-        <v>63000</v>
+        <v>45000</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">G2*0.75</f>
-        <v>5250</v>
+        <v>3750</v>
       </c>
       <c r="K2" s="0" t="n">
         <f aca="false">H2*1.1</f>
-        <v>69300</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="n">
+      <c r="A3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">G3*9</f>
-        <v>90000</v>
+        <v>63000</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">G3*0.75</f>
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">H3*1.1</f>
-        <v>99000</v>
+        <v>69300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
+      <c r="A4" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">G4*9</f>
-        <v>90000</v>
+        <v>63000</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">G4*0.75</f>
-        <v>7500</v>
+        <v>5250</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>68</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">H4*1.1</f>
-        <v>99000</v>
+        <v>69300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="n">
+      <c r="A5" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="28" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>8000</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">G5*9</f>
-        <v>72000</v>
+        <f aca="false">G5*10</f>
+        <v>80000</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">G5*0.75</f>
@@ -2265,34 +2323,34 @@
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">H5*1.1</f>
-        <v>79200</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="n">
+      <c r="A6" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="28" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>7000</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">G6*9</f>
-        <v>63000</v>
+        <f aca="false">G6*10</f>
+        <v>70000</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">G6*0.75</f>
@@ -2303,26 +2361,26 @@
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">H6*1.1</f>
-        <v>69300</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="0" t="n">
@@ -2345,60 +2403,60 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="28" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H8" s="0" t="n">
         <f aca="false">G8*9</f>
-        <v>90000</v>
+        <v>27000</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">G8*0.75</f>
-        <v>7500</v>
+        <v>2250</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>68</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">H8*1.1</f>
-        <v>99000</v>
+        <v>29700</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="28" t="s">
         <v>74</v>
       </c>
       <c r="G9" s="0" t="n">
@@ -2412,7 +2470,7 @@
         <f aca="false">G9*0.75</f>
         <v>4500</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="29" t="s">
         <v>69</v>
       </c>
       <c r="K9" s="0" t="n">
@@ -2421,22 +2479,22 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="n">
+      <c r="A10" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="28" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -2459,22 +2517,22 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="n">
+      <c r="A11" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="0" t="n">
@@ -2497,22 +2555,22 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="n">
+      <c r="A12" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="0" t="n">
@@ -2535,22 +2593,22 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="28" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="0" t="n">
@@ -2573,22 +2631,22 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="n">
+      <c r="A14" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="28" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="0" t="n">
@@ -2611,23 +2669,23 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="23" t="n">
         <f aca="false">24*3</f>
         <v>72</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="28" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -2647,22 +2705,22 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+      <c r="A16" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="28" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -2682,23 +2740,22 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="20" t="n">
-        <f aca="false">30*24</f>
-        <v>720</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="23" t="n">
+        <v>600</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="0" t="n">
@@ -2721,22 +2778,22 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
+      <c r="A18" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="28" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="0" t="n">
@@ -2759,23 +2816,22 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+      <c r="A19" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="20" t="n">
-        <f aca="false">60*24</f>
-        <v>1440</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="28" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="0" t="n">
@@ -2795,640 +2851,640 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="A21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="A22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="A24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="A25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="A26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="A27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="A28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="A30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="A31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="A33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="A34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="A36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="A37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="A38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
+      <c r="A39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="A40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="A41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="A43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="A44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="A45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="A46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="A47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="A48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="A49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="A50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
+      <c r="A51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
+      <c r="A52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
+      <c r="A53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="A54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="A55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="A56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="A57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="A58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="A59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="A60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="A61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="A62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
+      <c r="A63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
+      <c r="A64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
+      <c r="A65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="A66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="A67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="A68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="A69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
+      <c r="A70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="A71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="20"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="20"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="20"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="20"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="20"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="20"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="20"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="20"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="20"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="20"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="20"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="20"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="20"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="20"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="20"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="20"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="20"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="20"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="20"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="20"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="20"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="20"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="20"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="20"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="20"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="20"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="20"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="20"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="20"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="20"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="20"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
+      <c r="A105" s="23"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3452,448 +3508,448 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="30" t="n">
+      <c r="B2" s="33" t="n">
         <v>3.382628</v>
       </c>
-      <c r="C2" s="30" t="n">
+      <c r="C2" s="33" t="n">
         <v>36.738027</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="30" t="n">
+      <c r="B3" s="33" t="n">
         <v>3.796547</v>
       </c>
-      <c r="C3" s="30" t="n">
+      <c r="C3" s="33" t="n">
         <v>36.452382</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="30" t="n">
+      <c r="B4" s="33" t="n">
         <v>3.656768</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="33" t="n">
         <v>36.834157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="30" t="n">
+      <c r="B5" s="33" t="n">
         <v>4.223964</v>
       </c>
-      <c r="C5" s="30" t="n">
+      <c r="C5" s="33" t="n">
         <v>36.759999</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="30" t="n">
+      <c r="B6" s="33" t="n">
         <v>3.560828</v>
       </c>
-      <c r="C6" s="30" t="n">
+      <c r="C6" s="33" t="n">
         <v>36.606191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="30" t="n">
+      <c r="B7" s="33" t="n">
         <v>3.708845</v>
       </c>
-      <c r="C7" s="30" t="n">
+      <c r="C7" s="33" t="n">
         <v>36.438639</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="30" t="n">
+      <c r="B8" s="33" t="n">
         <v>3.48036943</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="33" t="n">
         <v>36.8153996</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="30" t="n">
+      <c r="B9" s="33" t="n">
         <v>3.81834414</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="33" t="n">
         <v>36.5419431</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="30" t="n">
+      <c r="B10" s="33" t="n">
         <v>3.68687441</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="33" t="n">
         <v>36.8941092</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="30" t="n">
+      <c r="B11" s="33" t="n">
         <v>4.22586571</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="33" t="n">
         <v>36.7745918</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="30" t="n">
+      <c r="B12" s="33" t="n">
         <v>3.62335251</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="33" t="n">
         <v>36.6454257</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="30" t="n">
+      <c r="B13" s="33" t="n">
         <v>3.74291712</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="33" t="n">
         <v>36.5148909</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="30" t="n">
+      <c r="B14" s="33" t="n">
         <v>3.57735223</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="33" t="n">
         <v>36.8301506</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="30" t="n">
+      <c r="B15" s="33" t="n">
         <v>3.83814888</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="33" t="n">
         <v>36.5714184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="30" t="n">
+      <c r="B16" s="33" t="n">
         <v>3.7143189</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="33" t="n">
         <v>36.9938681</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="30" t="n">
+      <c r="B17" s="33" t="n">
         <v>4.23442864</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="33" t="n">
         <v>36.7821268</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="30" t="n">
+      <c r="B18" s="33" t="n">
         <v>3.66715437</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C18" s="33" t="n">
         <v>36.6733122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="30" t="n">
+      <c r="B19" s="33" t="n">
         <v>3.75223271</v>
       </c>
-      <c r="C19" s="30" t="n">
+      <c r="C19" s="33" t="n">
         <v>36.5612685</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="30" t="n">
+      <c r="B20" s="33" t="n">
         <v>3.67597052</v>
       </c>
-      <c r="C20" s="30" t="n">
+      <c r="C20" s="33" t="n">
         <v>36.8464066</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="30" t="n">
+      <c r="B21" s="33" t="n">
         <v>3.87715608</v>
       </c>
-      <c r="C21" s="30" t="n">
+      <c r="C21" s="33" t="n">
         <v>36.633536</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="30" t="n">
+      <c r="B22" s="33" t="n">
         <v>3.73961887</v>
       </c>
-      <c r="C22" s="30" t="n">
+      <c r="C22" s="33" t="n">
         <v>37.0495704</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="30" t="n">
+      <c r="B23" s="33" t="n">
         <v>4.32969441</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="33" t="n">
         <v>36.8293979</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="30" t="n">
+      <c r="B24" s="33" t="n">
         <v>3.68396877</v>
       </c>
-      <c r="C24" s="30" t="n">
+      <c r="C24" s="33" t="n">
         <v>36.7397901</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="30" t="n">
+      <c r="B25" s="33" t="n">
         <v>3.82533597</v>
       </c>
-      <c r="C25" s="30" t="n">
+      <c r="C25" s="33" t="n">
         <v>36.64824</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="30" t="n">
+      <c r="B26" s="33" t="n">
         <v>3.76064683</v>
       </c>
-      <c r="C26" s="30" t="n">
+      <c r="C26" s="33" t="n">
         <v>36.8839447</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="30" t="n">
+      <c r="B27" s="33" t="n">
         <v>3.91718799</v>
       </c>
-      <c r="C27" s="30" t="n">
+      <c r="C27" s="33" t="n">
         <v>36.6690465</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="30" t="n">
+      <c r="B28" s="33" t="n">
         <v>3.7657132</v>
       </c>
-      <c r="C28" s="30" t="n">
+      <c r="C28" s="33" t="n">
         <v>37.0824723</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="30" t="n">
+      <c r="B29" s="33" t="n">
         <v>4.35981594</v>
       </c>
-      <c r="C29" s="30" t="n">
+      <c r="C29" s="33" t="n">
         <v>36.8588089</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="30" t="n">
+      <c r="B30" s="33" t="n">
         <v>3.73594413</v>
       </c>
-      <c r="C30" s="30" t="n">
+      <c r="C30" s="33" t="n">
         <v>36.8315668</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="30" t="n">
+      <c r="B31" s="33" t="n">
         <v>3.8771501</v>
       </c>
-      <c r="C31" s="30" t="n">
+      <c r="C31" s="33" t="n">
         <v>36.6973403</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="30" t="n">
+      <c r="B32" s="33" t="n">
         <v>3.8330832</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="33" t="n">
         <v>36.9110609</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="30" t="n">
+      <c r="B33" s="33" t="n">
         <v>3.95505275</v>
       </c>
-      <c r="C33" s="30" t="n">
+      <c r="C33" s="33" t="n">
         <v>36.7655372</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="30" t="n">
+      <c r="B34" s="33" t="n">
         <v>3.85210038</v>
       </c>
-      <c r="C34" s="30" t="n">
+      <c r="C34" s="33" t="n">
         <v>37.1701443</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="30" t="n">
+      <c r="B35" s="33" t="n">
         <v>4.36048175</v>
       </c>
-      <c r="C35" s="30" t="n">
+      <c r="C35" s="33" t="n">
         <v>36.8803902</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="30" t="n">
+      <c r="B36" s="33" t="n">
         <v>3.80123012</v>
       </c>
-      <c r="C36" s="30" t="n">
+      <c r="C36" s="33" t="n">
         <v>36.8774042</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="30" t="n">
+      <c r="B37" s="33" t="n">
         <v>3.95801733</v>
       </c>
-      <c r="C37" s="30" t="n">
+      <c r="C37" s="33" t="n">
         <v>36.7709093</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="30" t="n">
+      <c r="B38" s="33" t="n">
         <v>3.88537781</v>
       </c>
-      <c r="C38" s="30" t="n">
+      <c r="C38" s="33" t="n">
         <v>36.9964433</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="30" t="n">
+      <c r="B39" s="33" t="n">
         <v>4.02159372</v>
       </c>
-      <c r="C39" s="30" t="n">
+      <c r="C39" s="33" t="n">
         <v>36.8570698</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="30" t="n">
+      <c r="B40" s="33" t="n">
         <v>3.88341944</v>
       </c>
-      <c r="C40" s="30" t="n">
+      <c r="C40" s="33" t="n">
         <v>37.2204854</v>
       </c>
     </row>

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -820,10 +820,10 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1716,10 +1716,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1965,8 +1965,7 @@
         <v>100</v>
       </c>
       <c r="F12" s="0" t="n">
-        <f aca="false">+0.5*1000</f>
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2067,8 +2066,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="0" t="n">
-        <f aca="false">+0.5*1000</f>
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2125,11 +2123,11 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="16.66"/>
@@ -3508,7 +3506,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">

--- a/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
+++ b/CASES/05_Challenge_Data/Challenge_Asset_Portfolio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="LOAD_TAGS" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -46,100 +46,118 @@
     <t xml:space="preserve">Load_R1</t>
   </si>
   <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type1.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type2.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type3.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type4.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type5.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/dlalvareza/Documents/02_Develop/PywerAPM/PywerAPM/APM/DATA/X1_Loads/Load_Type6.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load_CI14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env_Impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type1.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Load_R3</t>
+    <t xml:space="preserve">PV_4</t>
   </si>
   <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type2.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Load_R4</t>
+    <t xml:space="preserve">PV_5</t>
   </si>
   <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type3.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Load_R5</t>
+    <t xml:space="preserve">PV_6</t>
   </si>
   <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type4.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Load_R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_R10</t>
+    <t xml:space="preserve">PV_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV_10</t>
   </si>
   <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type5.json</t>
   </si>
   <si>
-    <t xml:space="preserve">Load_R11</t>
+    <t xml:space="preserve">PV_11</t>
   </si>
   <si>
     <t xml:space="preserve">../APM/DATA/X1_Loads/Load_Type6.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load_CI14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV_11</t>
   </si>
   <si>
     <t xml:space="preserve">WT_7</t>
@@ -819,14 +837,14 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="92.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="9.17"/>
@@ -1715,11 +1733,11 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.66"/>
@@ -1752,7 +1770,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>1</v>
@@ -1769,10 +1787,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>1</v>
@@ -1789,10 +1807,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>1</v>
@@ -1809,10 +1827,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>1</v>
@@ -1829,10 +1847,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>1</v>
@@ -1849,10 +1867,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>1</v>
@@ -1869,10 +1887,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>1</v>
@@ -1889,10 +1907,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>1</v>
@@ -1909,10 +1927,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="12" t="n">
         <v>1</v>
@@ -1929,10 +1947,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C11" s="12" t="n">
         <v>1</v>
@@ -1949,10 +1967,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="n">
         <v>1</v>
@@ -1970,10 +1988,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C13" s="12" t="n">
         <v>1</v>
@@ -1990,10 +2008,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C14" s="12" t="n">
         <v>1</v>
@@ -2010,10 +2028,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12" t="n">
         <v>1</v>
@@ -2030,10 +2048,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C16" s="12" t="n">
         <v>1</v>
@@ -2050,10 +2068,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12" t="n">
         <v>1</v>
@@ -2107,11 +2125,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2124,10 +2142,10 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="16.66"/>
@@ -2142,37 +2160,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2180,19 +2198,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" s="23" t="n">
         <v>4</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>5000</v>
@@ -2215,19 +2233,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="23" t="n">
         <v>6</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>7000</v>
@@ -2241,7 +2259,7 @@
         <v>5250</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">H3*1.1</f>
@@ -2253,19 +2271,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D4" s="23" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>7000</v>
@@ -2279,7 +2297,7 @@
         <v>5250</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">H4*1.1</f>
@@ -2291,19 +2309,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D5" s="23" t="n">
         <v>24</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>8000</v>
@@ -2317,7 +2335,7 @@
         <v>6000</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">H5*1.1</f>
@@ -2329,19 +2347,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D6" s="23" t="n">
         <v>24</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>7000</v>
@@ -2355,7 +2373,7 @@
         <v>5250</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">H6*1.1</f>
@@ -2367,16 +2385,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7" s="23" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>6</v>
@@ -2393,7 +2411,7 @@
         <v>6000</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">H7*1.1</f>
@@ -2405,16 +2423,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D8" s="23" t="n">
         <v>4</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>22</v>
@@ -2431,7 +2449,7 @@
         <v>2250</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">H8*1.1</f>
@@ -2443,19 +2461,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>6000</v>
@@ -2469,7 +2487,7 @@
         <v>4500</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="false">H9*1.1</f>
@@ -2481,16 +2499,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10" s="23" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>20</v>
@@ -2507,7 +2525,7 @@
         <v>2250</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">H10*1.1</f>
@@ -2519,16 +2537,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>71</v>
       </c>
       <c r="D11" s="23" t="n">
         <v>8</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>27</v>
@@ -2545,7 +2563,7 @@
         <v>6000</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">H11*1.1</f>
@@ -2557,19 +2575,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>5</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3000</v>
@@ -2583,7 +2601,7 @@
         <v>2250</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="false">H12*1.1</f>
@@ -2595,19 +2613,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>5</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>7000</v>
@@ -2621,7 +2639,7 @@
         <v>5250</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">H13*1.1</f>
@@ -2633,19 +2651,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D14" s="23" t="n">
         <v>5</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>7000</v>
@@ -2659,7 +2677,7 @@
         <v>5250</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">H14*1.1</f>
@@ -2671,20 +2689,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D15" s="23" t="n">
         <f aca="false">24*3</f>
         <v>72</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>7000</v>
@@ -2707,19 +2725,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D16" s="23" t="n">
         <v>48</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>3000</v>
@@ -2742,19 +2760,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D17" s="23" t="n">
         <v>600</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>4000</v>
@@ -2768,7 +2786,7 @@
         <v>3000</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">H17*1.1</f>
@@ -2780,16 +2798,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D18" s="23" t="n">
         <v>4</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>25</v>
@@ -2806,7 +2824,7 @@
         <v>750</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="false">H18*1.1</f>
@@ -2818,19 +2836,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D19" s="23" t="n">
         <v>1200</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>10000</v>
@@ -3506,17 +3524,17 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -3524,7 +3542,7 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>3.382628</v>
@@ -3535,7 +3553,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>3.796547</v>
@@ -3546,7 +3564,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>3.656768</v>
@@ -3557,7 +3575,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B5" s="33" t="n">
         <v>4.223964</v>
@@ -3568,7 +3586,7 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" s="33" t="n">
         <v>3.560828</v>
@@ -3579,7 +3597,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B7" s="33" t="n">
         <v>3.708845</v>
@@ -3590,7 +3608,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B8" s="33" t="n">
         <v>3.48036943</v>
@@ -3601,7 +3619,7 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B9" s="33" t="n">
         <v>3.81834414</v>
@@ -3612,7 +3630,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B10" s="33" t="n">
         <v>3.68687441</v>
@@ -3623,7 +3641,7 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B11" s="33" t="n">
         <v>4.22586571</v>
@@ -3634,7 +3652,7 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B12" s="33" t="n">
         <v>3.62335251</v>
@@ -3645,7 +3663,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B13" s="33" t="n">
         <v>3.74291712</v>
@@ -3656,7 +3674,7 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>3.57735223</v>
@@ -3667,7 +3685,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>3.83814888</v>
@@ -3678,7 +3696,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="34" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>3.7143189</v>
@@ -3689,7 +3707,7 @@
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>4.23442864</v>
@@ -3700,7 +3718,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>3.66715437</v>
@@ -3711,7 +3729,7 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>3.75223271</v>
@@ -3722,7 +3740,7 @@
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>3.67597052</v>
@@ -3733,7 +3751,7 @@
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>3.87715608</v>
@@ -3744,7 +3762,7 @@
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="34" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>3.73961887</v>
@@ -3755,7 +3773,7 @@
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B23" s="33" t="n">
         <v>4.32969441</v>
@@ -3766,7 +3784,7 @@
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="34" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B24" s="33" t="n">
         <v>3.68396877</v>
@@ -3777,7 +3795,7 @@
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="34" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B25" s="33" t="n">
         <v>3.82533597</v>
@@ -3788,7 +3806,7 @@
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="34" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B26" s="33" t="n">
         <v>3.76064683</v>
@@ -3799,7 +3817,7 @@
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="34" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B27" s="33" t="n">
         <v>3.91718799</v>
@@ -3810,7 +3828,7 @@
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B28" s="33" t="n">
         <v>3.7657132</v>
@@ -3821,7 +3839,7 @@
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="34" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B29" s="33" t="n">
         <v>4.35981594</v>
@@ -3832,7 +3850,7 @@
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B30" s="33" t="n">
         <v>3.73594413</v>
@@ -3843,7 +3861,7 @@
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="34" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B31" s="33" t="n">
         <v>3.8771501</v>
@@ -3854,7 +3872,7 @@
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="34" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B32" s="33" t="n">
         <v>3.8330832</v>
@@ -3865,7 +3883,7 @@
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B33" s="33" t="n">
         <v>3.95505275</v>
@@ -3876,7 +3894,7 @@
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B34" s="33" t="n">
         <v>3.85210038</v>
@@ -3887,7 +3905,7 @@
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="34" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" s="33" t="n">
         <v>4.36048175</v>
@@ -3898,7 +3916,7 @@
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B36" s="33" t="n">
         <v>3.80123012</v>
@@ -3909,7 +3927,7 @@
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B37" s="33" t="n">
         <v>3.95801733</v>
@@ -3920,7 +3938,7 @@
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B38" s="33" t="n">
         <v>3.88537781</v>
@@ -3931,7 +3949,7 @@
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="34" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B39" s="33" t="n">
         <v>4.02159372</v>
@@ -3942,7 +3960,7 @@
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B40" s="33" t="n">
         <v>3.88341944</v>
